--- a/app/dist/excel/Zadachka2.xlsx
+++ b/app/dist/excel/Zadachka2.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Значение целевой функции: 36575.0</t>
+          <t>Значение целевой функции: 104900.0</t>
         </is>
       </c>
     </row>
@@ -505,14 +505,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>x_0 = 10.0</t>
+          <t>Количество партий товаров:</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="12.75" r="5" s="1">
       <c r="J5" t="inlineStr">
         <is>
-          <t>x_1 = 10.0</t>
+          <t>Товар 1 = 10.0</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       <c r="F6" s="4" t="n"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>x_2 = 10.0</t>
+          <t>Товар 2 = 10.0</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Сортировка: b/a</t>
+          <t>Товар 3 = 10.0</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Номер оптимальной задачи: 1</t>
+          <t>Сортировка: teta</t>
         </is>
       </c>
     </row>
